--- a/data/trans_orig/P36S3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36S3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7463AB8F-8CA2-4DAD-A1F1-91568AA38A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92AAD9DF-7F73-41BC-95BF-F9C259B83280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8E3A6DD-0CFB-4C69-B20B-E9AA01E96D78}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCA1C5A5-797E-4FCD-8779-5C52AA8CE8AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -97,79 +97,79 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>33,22%</t>
+    <t>29,35%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
   </si>
   <si>
     <t>31,36%</t>
   </si>
   <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
   </si>
   <si>
     <t>53,46%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>52,79%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
   </si>
   <si>
     <t>53,11%</t>
   </si>
   <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
   </si>
   <si>
     <t>0%</t>
@@ -187,13 +187,13 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>19,02%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>11,62%</t>
+    <t>10,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -208,1291 +208,1297 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>11,11%</t>
+    <t>11,73%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>19,4%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
     <t>67,62%</t>
   </si>
   <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>83,7%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -1504,91 +1510,85 @@
     <t>13,78%</t>
   </si>
   <si>
-    <t>8,5%</t>
+    <t>20,5%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>24,73%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>32,85%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>54,1%</t>
   </si>
   <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
   </si>
   <si>
     <t>56,05%</t>
   </si>
   <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,35%</t>
@@ -1600,82 +1600,82 @@
     <t>14,75%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>31,76%</t>
   </si>
   <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
   </si>
   <si>
     <t>50,21%</t>
   </si>
   <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -1684,7 +1684,7 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -1693,10 +1693,10 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B9B8DD-61A7-4FC9-B90B-D1BBE0ED507D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F12E70-8ED2-43E4-A70A-38EB895B92D7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2905,10 +2905,10 @@
         <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2923,13 @@
         <v>54366</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -2938,13 +2938,13 @@
         <v>59679</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -2953,13 +2953,13 @@
         <v>114045</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,7 +2980,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,7 +3031,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,7 +3117,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3129,13 +3129,13 @@
         <v>3737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3144,13 +3144,13 @@
         <v>6720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3159,13 +3159,13 @@
         <v>10457</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,10 +3180,10 @@
         <v>10775</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>94</v>
@@ -3671,7 +3671,7 @@
         <v>3849</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>150</v>
@@ -3748,10 +3748,10 @@
         <v>152</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -3760,13 +3760,13 @@
         <v>15071</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -3775,13 +3775,13 @@
         <v>27310</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,10 +3799,10 @@
         <v>29</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
@@ -3811,13 +3811,13 @@
         <v>34236</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M35" s="7">
         <v>86</v>
@@ -3826,13 +3826,13 @@
         <v>86825</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3847,13 @@
         <v>137933</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H36" s="7">
         <v>168</v>
@@ -3862,13 +3862,13 @@
         <v>179561</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M36" s="7">
         <v>296</v>
@@ -3877,13 +3877,13 @@
         <v>317494</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,7 +3904,7 @@
         <v>44</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3913,13 +3913,13 @@
         <v>1134</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3928,13 +3928,13 @@
         <v>1134</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,7 +3955,7 @@
         <v>44</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -3964,10 +3964,10 @@
         <v>5783</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>183</v>
@@ -4062,7 +4062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E80488-ADFF-4CE5-82EF-F669B45D2576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AE400A-60F0-424E-A269-809AAB446527}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4524,13 +4524,13 @@
         <v>2973</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4545,13 @@
         <v>15796</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4560,13 +4560,13 @@
         <v>4122</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -4575,13 +4575,13 @@
         <v>19918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4596,13 @@
         <v>19419</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -4611,13 +4611,13 @@
         <v>28545</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -4626,13 +4626,13 @@
         <v>47964</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,7 +4653,7 @@
         <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4698,13 +4698,13 @@
         <v>1022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4734,7 +4734,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4802,13 @@
         <v>1994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4817,13 +4817,13 @@
         <v>3353</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4832,13 +4832,13 @@
         <v>5347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4853,13 @@
         <v>22420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4868,13 +4868,13 @@
         <v>6335</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -4883,13 +4883,13 @@
         <v>28755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4904,13 @@
         <v>47600</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -4919,13 +4919,13 @@
         <v>51050</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -4934,13 +4934,13 @@
         <v>98650</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,7 +4961,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4970,13 +4970,13 @@
         <v>972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4985,13 +4985,13 @@
         <v>972</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5006,13 @@
         <v>2423</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5027,7 +5027,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5036,13 +5036,13 @@
         <v>2423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,7 +5098,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5116,7 +5116,7 @@
         <v>44</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5125,13 +5125,13 @@
         <v>4124</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5140,10 +5140,10 @@
         <v>4124</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>282</v>
@@ -5167,7 +5167,7 @@
         <v>284</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -5176,13 +5176,13 @@
         <v>14339</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -5191,13 +5191,13 @@
         <v>32390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5212,13 @@
         <v>63397</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -5227,13 +5227,13 @@
         <v>55178</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M24" s="7">
         <v>100</v>
@@ -5242,13 +5242,13 @@
         <v>118574</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,7 +5269,7 @@
         <v>44</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,7 +5314,7 @@
         <v>953</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>18</v>
@@ -5335,7 +5335,7 @@
         <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5424,7 +5424,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5433,13 +5433,13 @@
         <v>1991</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5448,13 +5448,13 @@
         <v>4190</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5469,13 @@
         <v>20864</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -5484,10 +5484,10 @@
         <v>10742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>317</v>
@@ -5499,13 +5499,13 @@
         <v>31606</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5520,13 @@
         <v>72490</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H30" s="7">
         <v>79</v>
@@ -5535,13 +5535,13 @@
         <v>86225</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M30" s="7">
         <v>147</v>
@@ -5550,13 +5550,13 @@
         <v>158716</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,7 +5577,7 @@
         <v>44</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>44</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>44</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5622,13 @@
         <v>1268</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>44</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5652,13 +5652,13 @@
         <v>1268</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5726,13 @@
         <v>6242</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -5741,13 +5741,13 @@
         <v>11357</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M34" s="7">
         <v>15</v>
@@ -5756,13 +5756,13 @@
         <v>17600</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>342</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5777,13 @@
         <v>80637</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H35" s="7">
         <v>30</v>
@@ -5792,13 +5792,13 @@
         <v>36513</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M35" s="7">
         <v>110</v>
@@ -5807,13 +5807,13 @@
         <v>117150</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5828,13 @@
         <v>206770</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>354</v>
+        <v>169</v>
       </c>
       <c r="H36" s="7">
         <v>201</v>
@@ -5843,13 +5843,13 @@
         <v>226368</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M36" s="7">
         <v>386</v>
@@ -5858,13 +5858,13 @@
         <v>433137</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,7 +5885,7 @@
         <v>44</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>150</v>
+        <v>338</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -5894,13 +5894,13 @@
         <v>972</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>112</v>
+        <v>363</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -5909,13 +5909,13 @@
         <v>972</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5930,13 @@
         <v>5666</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>365</v>
+        <v>217</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>44</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -5960,13 +5960,13 @@
         <v>5666</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>329</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,7 +6043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE57E9-4A9E-40B0-B5BD-3C568819534D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397D6D3B-16A3-4DFE-86AF-BFC1C78B5604}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6060,7 +6060,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6167,13 +6167,13 @@
         <v>8585</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -6182,13 +6182,13 @@
         <v>9593</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -6197,13 +6197,13 @@
         <v>18178</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6218,13 @@
         <v>16538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6233,13 +6233,13 @@
         <v>6051</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -6248,13 +6248,13 @@
         <v>22589</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6269,13 @@
         <v>8458</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -6284,13 +6284,13 @@
         <v>12226</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -6299,13 +6299,13 @@
         <v>20684</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,7 +6326,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>398</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,7 +6377,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>398</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6475,13 @@
         <v>12354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -6490,13 +6490,13 @@
         <v>15502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -6505,13 +6505,13 @@
         <v>27855</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6526,13 @@
         <v>31605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -6541,13 +6541,13 @@
         <v>34103</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -6556,13 +6556,13 @@
         <v>65709</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6577,13 @@
         <v>38090</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>47</v>
@@ -6592,13 +6592,13 @@
         <v>47331</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -6607,13 +6607,13 @@
         <v>85422</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,7 +6634,7 @@
         <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,7 +6685,7 @@
         <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6783,13 @@
         <v>21983</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6798,13 +6798,13 @@
         <v>32885</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -6813,13 +6813,13 @@
         <v>54868</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6834,13 @@
         <v>74920</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -6849,13 +6849,13 @@
         <v>71887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -6864,13 +6864,13 @@
         <v>146806</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6885,13 @@
         <v>73680</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>372</v>
+        <v>449</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -6900,13 +6900,13 @@
         <v>81123</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
@@ -6915,13 +6915,13 @@
         <v>154803</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6936,13 @@
         <v>2836</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6957,7 +6957,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6966,13 +6966,13 @@
         <v>2836</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,7 +6993,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>458</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7008,7 +7008,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,7 +7079,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7091,13 +7091,13 @@
         <v>12389</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -7106,13 +7106,13 @@
         <v>12209</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -7121,13 +7121,13 @@
         <v>24598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,10 +7145,10 @@
         <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -7157,13 +7157,13 @@
         <v>11052</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -7172,13 +7172,13 @@
         <v>23330</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7193,13 @@
         <v>51520</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
@@ -7208,13 +7208,13 @@
         <v>71678</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>198</v>
+        <v>482</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M24" s="7">
         <v>110</v>
@@ -7223,13 +7223,13 @@
         <v>123199</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,7 +7250,7 @@
         <v>44</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7280,7 +7280,7 @@
         <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
         <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7316,7 +7316,7 @@
         <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7399,13 @@
         <v>20113</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>488</v>
+        <v>45</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>490</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -7414,13 +7414,13 @@
         <v>28740</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -7429,13 +7429,13 @@
         <v>48853</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7450,13 @@
         <v>40058</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -7465,13 +7465,13 @@
         <v>43112</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M29" s="7">
         <v>77</v>
@@ -7480,13 +7480,13 @@
         <v>83171</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>395</v>
+        <v>503</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7501,13 @@
         <v>84918</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H30" s="7">
         <v>77</v>
@@ -7516,13 +7516,13 @@
         <v>85860</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M30" s="7">
         <v>159</v>
@@ -7531,13 +7531,13 @@
         <v>170778</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7552,13 @@
         <v>901</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7567,13 +7567,13 @@
         <v>996</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>514</v>
+        <v>185</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>515</v>
+        <v>274</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -7582,7 +7582,7 @@
         <v>1897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>18</v>

--- a/data/trans_orig/P36S3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36S3-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92AAD9DF-7F73-41BC-95BF-F9C259B83280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F73985F-C402-4B77-83C7-063607B9115B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCA1C5A5-797E-4FCD-8779-5C52AA8CE8AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFFB2B24-8052-4086-8A4D-7C4718A4AD7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="553">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2007 (Tasa respuesta: 6,39%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otro tipo de alimentos</t>
@@ -88,7 +88,7 @@
     <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>9,22%</t>
@@ -97,7 +97,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,35%</t>
+    <t>28,1%</t>
   </si>
   <si>
     <t>17,19%</t>
@@ -106,7 +106,7 @@
     <t>4,32%</t>
   </si>
   <si>
-    <t>38,16%</t>
+    <t>34,99%</t>
   </si>
   <si>
     <t>13,4%</t>
@@ -115,61 +115,61 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>25,41%</t>
+    <t>25,44%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
   </si>
   <si>
     <t>31,36%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>53,46%</t>
   </si>
   <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>52,79%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>53,11%</t>
   </si>
   <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>0%</t>
@@ -187,97 +187,97 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>20,72%</t>
+    <t>20,71%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>10,82%</t>
+    <t>9,07%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>9,3%</t>
+    <t>9,99%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
   </si>
   <si>
     <t>77,89%</t>
   </si>
   <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -289,1216 +289,1222 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2016 (Tasa respuesta: 15,28%)</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
     <t>0,58%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>67,62%</t>
   </si>
   <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -1510,172 +1516,160 @@
     <t>13,78%</t>
   </si>
   <si>
-    <t>20,5%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>24,73%</t>
+    <t>11,99%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
+    <t>35,4%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>54,1%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
   </si>
   <si>
     <t>56,05%</t>
   </si>
   <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>14,03%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>31,76%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>50,21%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -1684,10 +1678,7 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -1696,7 +1687,7 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -2117,7 +2108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F12E70-8ED2-43E4-A70A-38EB895B92D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A207CB5-85F5-44D0-9823-4E63831C1E59}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3183,10 +3174,10 @@
         <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3195,13 +3186,13 @@
         <v>5864</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3210,13 +3201,13 @@
         <v>16639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3222,13 @@
         <v>33048</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -3246,13 +3237,13 @@
         <v>42097</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>75</v>
@@ -3261,13 +3252,13 @@
         <v>75144</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3294,7 @@
         <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3318,7 +3309,7 @@
         <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3339,13 @@
         <v>981</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3363,13 +3354,13 @@
         <v>981</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3416,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3437,13 +3428,13 @@
         <v>3210</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3452,13 +3443,13 @@
         <v>2106</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3467,13 +3458,13 @@
         <v>5316</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3479,13 @@
         <v>14047</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -3503,13 +3494,13 @@
         <v>7574</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -3518,13 +3509,13 @@
         <v>21621</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3530,13 @@
         <v>39165</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H30" s="7">
         <v>60</v>
@@ -3554,13 +3545,13 @@
         <v>65420</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M30" s="7">
         <v>100</v>
@@ -3569,13 +3560,13 @@
         <v>104585</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3587,7 @@
         <v>44</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3605,13 +3596,13 @@
         <v>1134</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3620,13 +3611,13 @@
         <v>1134</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,7 +3638,7 @@
         <v>44</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3656,13 +3647,13 @@
         <v>3849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3674,10 +3665,10 @@
         <v>80</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,10 +3739,10 @@
         <v>152</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -3760,13 +3751,13 @@
         <v>15071</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -3775,13 +3766,13 @@
         <v>27310</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,10 +3790,10 @@
         <v>29</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
@@ -3811,13 +3802,13 @@
         <v>34236</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M35" s="7">
         <v>86</v>
@@ -3826,13 +3817,13 @@
         <v>86825</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3838,13 @@
         <v>137933</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H36" s="7">
         <v>168</v>
@@ -3862,13 +3853,13 @@
         <v>179561</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M36" s="7">
         <v>296</v>
@@ -3877,13 +3868,13 @@
         <v>317494</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,7 +3895,7 @@
         <v>44</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3913,13 +3904,13 @@
         <v>1134</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3928,13 +3919,13 @@
         <v>1134</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,7 +3946,7 @@
         <v>44</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -3964,13 +3955,13 @@
         <v>5783</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -3979,13 +3970,13 @@
         <v>5783</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,7 +4032,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4062,7 +4053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AE400A-60F0-424E-A269-809AAB446527}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC9B683-8866-4AFD-B557-888C1CFC9023}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4079,7 +4070,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4186,13 +4177,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4207,7 +4198,7 @@
         <v>44</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4216,13 +4207,13 @@
         <v>965</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4228,13 @@
         <v>3506</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4252,13 +4243,13 @@
         <v>975</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4267,13 +4258,13 @@
         <v>4481</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4279,13 @@
         <v>3863</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4303,13 +4294,13 @@
         <v>5371</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4318,13 +4309,13 @@
         <v>9234</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,7 +4336,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4360,7 +4351,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4375,7 +4366,7 @@
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4387,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4411,7 +4402,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4426,7 +4417,7 @@
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4485,13 @@
         <v>1084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4509,13 +4500,13 @@
         <v>1889</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4524,13 +4515,13 @@
         <v>2973</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4536,13 @@
         <v>15796</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4560,13 +4551,13 @@
         <v>4122</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -4575,13 +4566,13 @@
         <v>19918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4587,13 @@
         <v>19419</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -4611,13 +4602,13 @@
         <v>28545</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -4626,13 +4617,13 @@
         <v>47964</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,7 +4644,7 @@
         <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4668,7 +4659,7 @@
         <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4683,7 +4674,7 @@
         <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,7 +4695,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4719,7 +4710,7 @@
         <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4728,13 +4719,13 @@
         <v>1022</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4793,13 @@
         <v>1994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4817,13 +4808,13 @@
         <v>3353</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4832,13 +4823,13 @@
         <v>5347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,10 +4844,10 @@
         <v>22420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>252</v>
@@ -4883,13 +4874,13 @@
         <v>28755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4895,13 @@
         <v>47600</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -4919,13 +4910,13 @@
         <v>51050</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -4934,13 +4925,13 @@
         <v>98650</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,7 +4952,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4970,13 +4961,13 @@
         <v>972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4985,13 +4976,13 @@
         <v>972</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4997,13 @@
         <v>2423</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5027,7 +5018,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5036,13 +5027,13 @@
         <v>2423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,10 +5134,10 @@
         <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5152,13 @@
         <v>18051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -5176,13 +5167,13 @@
         <v>14339</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -5191,13 +5182,13 @@
         <v>32390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5203,13 @@
         <v>63397</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -5227,13 +5218,13 @@
         <v>55178</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M24" s="7">
         <v>100</v>
@@ -5242,13 +5233,13 @@
         <v>118574</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,7 +5275,7 @@
         <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5299,7 +5290,7 @@
         <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5305,13 @@
         <v>953</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5335,7 +5326,7 @@
         <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5344,13 +5335,13 @@
         <v>953</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,7 +5397,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5418,13 +5409,13 @@
         <v>2199</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5433,13 +5424,13 @@
         <v>1991</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5448,7 +5439,7 @@
         <v>4190</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>311</v>
@@ -5487,10 +5478,10 @@
         <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -5499,13 +5490,13 @@
         <v>31606</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5511,13 @@
         <v>72490</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H30" s="7">
         <v>79</v>
@@ -5535,13 +5526,13 @@
         <v>86225</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M30" s="7">
         <v>147</v>
@@ -5550,13 +5541,13 @@
         <v>158716</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,7 +5568,7 @@
         <v>44</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5592,7 +5583,7 @@
         <v>44</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5607,7 +5598,7 @@
         <v>44</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5613,13 @@
         <v>1268</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5643,7 +5634,7 @@
         <v>44</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5652,13 +5643,13 @@
         <v>1268</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5717,13 @@
         <v>6242</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -5741,10 +5732,10 @@
         <v>11357</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>341</v>
+        <v>85</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>342</v>
@@ -5762,7 +5753,7 @@
         <v>344</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5768,13 @@
         <v>80637</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H35" s="7">
         <v>30</v>
@@ -5792,13 +5783,13 @@
         <v>36513</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M35" s="7">
         <v>110</v>
@@ -5807,13 +5798,13 @@
         <v>117150</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5819,13 @@
         <v>206770</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>357</v>
       </c>
       <c r="H36" s="7">
         <v>201</v>
@@ -5843,13 +5834,13 @@
         <v>226368</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M36" s="7">
         <v>386</v>
@@ -5858,13 +5849,13 @@
         <v>433137</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,7 +5876,7 @@
         <v>44</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -5894,13 +5885,13 @@
         <v>972</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -5909,13 +5900,13 @@
         <v>972</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5921,13 @@
         <v>5666</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>217</v>
+        <v>369</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -5951,7 +5942,7 @@
         <v>44</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -5960,13 +5951,13 @@
         <v>5666</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>178</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,7 +6013,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +6034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397D6D3B-16A3-4DFE-86AF-BFC1C78B5604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4EAFB1-AADA-4ABF-9E38-911A3AD069A2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6060,7 +6051,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6167,13 +6158,13 @@
         <v>8585</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -6182,13 +6173,13 @@
         <v>9593</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -6197,13 +6188,13 @@
         <v>18178</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6209,13 @@
         <v>16538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6233,13 +6224,13 @@
         <v>6051</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -6248,13 +6239,13 @@
         <v>22589</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6260,13 @@
         <v>8458</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -6284,13 +6275,13 @@
         <v>12226</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -6299,13 +6290,13 @@
         <v>20684</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,7 +6317,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6341,7 +6332,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6356,7 +6347,7 @@
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,7 +6368,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6392,7 +6383,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6407,7 +6398,7 @@
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6466,13 @@
         <v>12354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -6490,13 +6481,13 @@
         <v>15502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -6505,13 +6496,13 @@
         <v>27855</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6517,13 @@
         <v>31605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -6541,13 +6532,13 @@
         <v>34103</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -6556,13 +6547,13 @@
         <v>65709</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6568,13 @@
         <v>38090</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H12" s="7">
         <v>47</v>
@@ -6592,13 +6583,13 @@
         <v>47331</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -6607,13 +6598,13 @@
         <v>85422</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,7 +6625,7 @@
         <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6649,7 +6640,7 @@
         <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6664,7 +6655,7 @@
         <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,7 +6676,7 @@
         <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6700,7 +6691,7 @@
         <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6715,7 +6706,7 @@
         <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6774,13 @@
         <v>21983</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6798,13 +6789,13 @@
         <v>32885</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -6813,13 +6804,13 @@
         <v>54868</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6825,13 @@
         <v>74920</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -6849,13 +6840,13 @@
         <v>71887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -6864,13 +6855,13 @@
         <v>146806</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6876,13 @@
         <v>73680</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>374</v>
+        <v>451</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -6900,13 +6891,13 @@
         <v>81123</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
@@ -6915,13 +6906,13 @@
         <v>154803</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6927,13 @@
         <v>2836</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6957,7 +6948,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6966,13 +6957,13 @@
         <v>2836</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,7 +6984,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>462</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7008,7 +6999,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7023,7 +7014,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7082,13 @@
         <v>12389</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -7106,13 +7097,13 @@
         <v>12209</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -7121,13 +7112,13 @@
         <v>24598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7133,13 @@
         <v>12278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>470</v>
+        <v>270</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -7157,13 +7148,13 @@
         <v>11052</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -7172,13 +7163,13 @@
         <v>23330</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7184,13 @@
         <v>51520</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
@@ -7208,13 +7199,13 @@
         <v>71678</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>110</v>
@@ -7223,13 +7214,13 @@
         <v>123199</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,7 +7241,7 @@
         <v>44</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7265,7 +7256,7 @@
         <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7280,7 +7271,7 @@
         <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,7 +7292,7 @@
         <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7316,7 +7307,7 @@
         <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7331,7 +7322,7 @@
         <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,7 +7378,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7399,13 +7390,13 @@
         <v>20113</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>45</v>
+        <v>492</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -7414,13 +7405,13 @@
         <v>28740</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>492</v>
+        <v>391</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -7429,13 +7420,13 @@
         <v>48853</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7441,13 @@
         <v>40058</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -7465,13 +7456,13 @@
         <v>43112</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M29" s="7">
         <v>77</v>
@@ -7480,13 +7471,13 @@
         <v>83171</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7492,13 @@
         <v>84918</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H30" s="7">
         <v>77</v>
@@ -7516,13 +7507,13 @@
         <v>85860</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M30" s="7">
         <v>159</v>
@@ -7531,13 +7522,13 @@
         <v>170778</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7543,13 @@
         <v>901</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>514</v>
+        <v>187</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7567,13 +7558,13 @@
         <v>996</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -7582,13 +7573,13 @@
         <v>1897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>514</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>516</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,7 +7600,7 @@
         <v>44</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7624,7 +7615,7 @@
         <v>44</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7639,7 +7630,7 @@
         <v>44</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>518</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,7 +7734,7 @@
         <v>526</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7758,13 +7749,13 @@
         <v>175399</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="H35" s="7">
         <v>153</v>
@@ -7773,13 +7764,13 @@
         <v>166206</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M35" s="7">
         <v>319</v>
@@ -7788,13 +7779,13 @@
         <v>341605</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,13 +7800,13 @@
         <v>256667</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H36" s="7">
         <v>278</v>
@@ -7824,13 +7815,13 @@
         <v>298218</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M36" s="7">
         <v>518</v>
@@ -7839,13 +7830,13 @@
         <v>554885</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7860,13 +7851,13 @@
         <v>3737</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7875,13 +7866,13 @@
         <v>996</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>549</v>
+        <v>371</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -7890,13 +7881,13 @@
         <v>4733</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,7 +7908,7 @@
         <v>44</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7932,7 +7923,7 @@
         <v>44</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7947,7 +7938,7 @@
         <v>44</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8003,7 +7994,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
